--- a/data/trans_dic/P2A_psíq_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.005538660862931901</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02430755787496426</v>
+        <v>0.02430755787496425</v>
       </c>
     </row>
     <row r="5">
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004666199427883377</v>
+        <v>0.004681611490077201</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01334705888111902</v>
+        <v>0.01331913463902273</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006516356810860061</v>
+        <v>0.006417530744379176</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01167455102842161</v>
+        <v>0.01004304974911201</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002837089613949203</v>
+        <v>0.002861860755288341</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01415348885076478</v>
+        <v>0.01411877904158604</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003902985572498751</v>
+        <v>0.003892957270216765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009196528287839446</v>
+        <v>0.00950073399501994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00155411801888778</v>
+        <v>0.001395932987149043</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01675168267916778</v>
+        <v>0.01653039747054554</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01460958962695921</v>
+        <v>0.01316017506881799</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02693176027703067</v>
+        <v>0.02700147039361488</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01178471092424301</v>
+        <v>0.01588716834819511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04195095446274425</v>
+        <v>0.04063029119944597</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03883185802412237</v>
+        <v>0.03902521591466912</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05187939736135185</v>
+        <v>0.05121194301429371</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02635675547037904</v>
+        <v>0.02441530883526432</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04295366812731156</v>
+        <v>0.04411747268991405</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01781036990080593</v>
+        <v>0.01896120635897783</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0290139642574483</v>
+        <v>0.02928570121879264</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01354399176672739</v>
+        <v>0.01294085342044075</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03561231939183501</v>
+        <v>0.03512993668672486</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002234619172709232</v>
+        <v>0.002220451952547508</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01008624593379404</v>
+        <v>0.009639102166560222</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002387814253246477</v>
+        <v>0.002418849354932888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007753894611767964</v>
+        <v>0.007056579970958874</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002530893285834226</v>
+        <v>0.00251537826853886</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005402383887741857</v>
+        <v>0.005426341611506695</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0150240605168298</v>
+        <v>0.01418068676324739</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003330750790985327</v>
+        <v>0.003425882778855795</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007811055471440694</v>
+        <v>0.007547098351378168</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005524233662867833</v>
+        <v>0.005459043845462652</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01310932680907574</v>
+        <v>0.01240997330792277</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02529411021991142</v>
+        <v>0.025936778817918</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.049142665656028</v>
+        <v>0.04959396309328466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03735734003170278</v>
+        <v>0.03025538907927532</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03209513736452548</v>
+        <v>0.03192406848043933</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02112975069602942</v>
+        <v>0.02089247523434094</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02159171044177555</v>
+        <v>0.02204462745175997</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03864155598973772</v>
+        <v>0.03733217903966437</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03911404180138524</v>
+        <v>0.03796797661513088</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01838094683128329</v>
+        <v>0.0182366454494989</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03086128582509964</v>
+        <v>0.03147758762787855</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02574209743707904</v>
+        <v>0.02694794616061779</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02914985169418211</v>
+        <v>0.02929522247749297</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.007361920978366754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01823341309560599</v>
+        <v>0.01823341309560598</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01152614793792757</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001701475485784022</v>
+        <v>0.001681573180648623</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01478021379632457</v>
+        <v>0.01473727271511628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001910196587163616</v>
+        <v>0.001924036453839003</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009056251452686858</v>
+        <v>0.008804402649555907</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003659606477346192</v>
+        <v>0.003623824694576072</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00699422543157239</v>
+        <v>0.006858282802817008</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002659543445986086</v>
+        <v>0.002679197071309775</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01315413256971178</v>
+        <v>0.01282522641896777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002754502955422893</v>
+        <v>0.002631709505963427</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01118989263597508</v>
+        <v>0.01007660660182249</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01642248973924256</v>
+        <v>0.01434314229549747</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04422127168051019</v>
+        <v>0.04664832120991204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0186989602455516</v>
+        <v>0.01687721447676152</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03247975134986104</v>
+        <v>0.03192592902883725</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03508839711132595</v>
+        <v>0.03520772105678782</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03428034037624869</v>
+        <v>0.03039045244370793</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02766542132576383</v>
+        <v>0.03018226576692724</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03821578429350742</v>
+        <v>0.03798309524605942</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01535678009614144</v>
+        <v>0.01584170870465259</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03502537950233123</v>
+        <v>0.03496468210538967</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01608256671432089</v>
+        <v>0.01506303424805431</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03081313931057136</v>
+        <v>0.02881747243764453</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005073129006763251</v>
+        <v>0.005240849989360285</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006820132082297094</v>
+        <v>0.006381833673260899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002424864576733078</v>
+        <v>0.002488543445938096</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01231931367681362</v>
+        <v>0.01244991223251534</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006933723477065881</v>
+        <v>0.007534866294969525</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01415265847001899</v>
+        <v>0.01365134394437046</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008191228376712989</v>
+        <v>0.007636561958500362</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01690699227717275</v>
+        <v>0.01680194143635768</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006963084988920565</v>
+        <v>0.007081238252320624</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01155442471061963</v>
+        <v>0.01102743537710273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006074681760998189</v>
+        <v>0.00593894797344468</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01653224555102225</v>
+        <v>0.01656236739393477</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01635801902855224</v>
+        <v>0.01711387332374364</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02084139538957454</v>
+        <v>0.01892345872610755</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01186773961906024</v>
+        <v>0.01136564667727837</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02894347028333562</v>
+        <v>0.02804263750052286</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0244153911245534</v>
+        <v>0.02617550875485353</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03847174343394184</v>
+        <v>0.03800799217836702</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02531856863194656</v>
+        <v>0.02453126509921885</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03765476338669638</v>
+        <v>0.03592335090480991</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01675214831290328</v>
+        <v>0.0176244639711941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02349699077151934</v>
+        <v>0.02316650145892927</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01506387250813744</v>
+        <v>0.01443927220509595</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02824518606056007</v>
+        <v>0.02839788183678252</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01816164249947223</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02587913019421117</v>
+        <v>0.02587913019421116</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.005518579063627176</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002323968490816435</v>
+        <v>0.00233397549553753</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005680454938206621</v>
+        <v>0.005924448189764814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009638427159560382</v>
+        <v>0.009167722469924216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01523137118769222</v>
+        <v>0.01578100261607252</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.001573425760042933</v>
+        <v>0.001575401834347163</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01921883217877809</v>
+        <v>0.01770340647112635</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01581490115296874</v>
+        <v>0.01759765587328821</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02153881120615548</v>
+        <v>0.02134512587930835</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002247309480754487</v>
+        <v>0.002230787429134056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01555897228189002</v>
+        <v>0.01548314569262891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01591666419491545</v>
+        <v>0.01587120363078079</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02138258987818054</v>
+        <v>0.02130271667918214</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02144105012213648</v>
+        <v>0.02158910743809357</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02612873117673568</v>
+        <v>0.02743700337661829</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03278005351235833</v>
+        <v>0.03259662475353181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04140988449903395</v>
+        <v>0.04379806397801334</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01447890905220994</v>
+        <v>0.0157136692577968</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04378301712595357</v>
+        <v>0.04394335914040689</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04409676126989614</v>
+        <v>0.04503173422447278</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03968039879150338</v>
+        <v>0.03989928537554068</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01293936154882144</v>
+        <v>0.01279632436288944</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03197301045677062</v>
+        <v>0.03373759813700471</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03441762616952619</v>
+        <v>0.03287054988843915</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03744461187324873</v>
+        <v>0.03720727735291385</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.01359477835329972</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0366437143711433</v>
+        <v>0.03664371437114331</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01472360329326702</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008214177082033199</v>
+        <v>0.01019314842566462</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02069564783207533</v>
+        <v>0.01970879040832242</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006633201728139621</v>
+        <v>0.00653662217598387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0213569446880262</v>
+        <v>0.01926032981853819</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007583080940548184</v>
+        <v>0.007222898772099824</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01117037267452143</v>
+        <v>0.01159898585254238</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.007374297701703589</v>
+        <v>0.007376084879694658</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02602366999134623</v>
+        <v>0.02633843796041827</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009099894282340773</v>
+        <v>0.009269534130273446</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01540051446404712</v>
+        <v>0.01536005455242605</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.008630387412728655</v>
+        <v>0.008820718021091646</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02773126118270245</v>
+        <v>0.02756850002045198</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04939725039255013</v>
+        <v>0.04741918636948678</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07395274428702463</v>
+        <v>0.08017942165550079</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03945287223607291</v>
+        <v>0.0379180904540897</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.095681086424926</v>
+        <v>0.09354892686279177</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02059864337241274</v>
+        <v>0.02164749551061543</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02838226736161637</v>
+        <v>0.02886085032736949</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02394851118889284</v>
+        <v>0.02261428677244689</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0515733269126522</v>
+        <v>0.05036208478810991</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02210525720063675</v>
+        <v>0.02210645475537227</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03389046246214274</v>
+        <v>0.03242364572337678</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02282616130250998</v>
+        <v>0.0223118510276645</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05121550595316041</v>
+        <v>0.05246151664961442</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.0162216986735202</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.02838465403407303</v>
+        <v>0.02838465403407302</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.01041112451529879</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005908125732351633</v>
+        <v>0.006256303907932156</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01386304468654506</v>
+        <v>0.01414283547008893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006348662953763408</v>
+        <v>0.00641647666304349</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0180202781148761</v>
+        <v>0.01747485488477565</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.008531062824124216</v>
+        <v>0.008379147838330889</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01636472927721958</v>
+        <v>0.01663321575445561</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01220452459473974</v>
+        <v>0.01247050912906788</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02417182073312458</v>
+        <v>0.02402056176299521</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.008096419616120882</v>
+        <v>0.007965603391215225</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01611142387451083</v>
+        <v>0.01653652601204056</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01045096502355048</v>
+        <v>0.01023094559119693</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02213034919954705</v>
+        <v>0.02238347352417468</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01295043770571711</v>
+        <v>0.01339412654604847</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02405709685131233</v>
+        <v>0.02431081585589016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0130800308570585</v>
+        <v>0.01314407820972222</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02789439772463551</v>
+        <v>0.02820464838001888</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01605676570846183</v>
+        <v>0.01592168677606871</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02632293221878618</v>
+        <v>0.02634413459335971</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02088343035445392</v>
+        <v>0.02084113627963297</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03344137093013175</v>
+        <v>0.03392687912148985</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01287678655790302</v>
+        <v>0.01314933177437903</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02337591057065593</v>
+        <v>0.02401048057411338</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01637569127846828</v>
+        <v>0.01572504971311154</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02915069830506546</v>
+        <v>0.02947670719628619</v>
       </c>
     </row>
     <row r="25">
@@ -1877,37 +1877,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7349</v>
+        <v>7334</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1998</v>
+        <v>1968</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3671</v>
+        <v>3158</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6913</v>
+        <v>6896</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3046</v>
+        <v>3038</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6913</v>
+        <v>7141</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1206</v>
+        <v>1083</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>17405</v>
+        <v>17176</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6922</v>
+        <v>6235</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11775</v>
+        <v>11805</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5057</v>
+        <v>6817</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23099</v>
+        <v>22372</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11909</v>
+        <v>11968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16314</v>
+        <v>16104</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9147</v>
+        <v>8473</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20979</v>
+        <v>21547</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13900</v>
+        <v>14798</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21809</v>
+        <v>22013</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10512</v>
+        <v>10044</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37002</v>
+        <v>36501</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4224</v>
+        <v>4037</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3747</v>
+        <v>3410</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6357</v>
+        <v>6000</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2461</v>
+        <v>2531</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5911</v>
+        <v>5712</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4140</v>
+        <v>4092</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11882</v>
+        <v>11248</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9281</v>
+        <v>9517</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20581</v>
+        <v>20770</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14092</v>
+        <v>11413</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15509</v>
+        <v>15426</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7857</v>
+        <v>7769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7298</v>
+        <v>7451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14385</v>
+        <v>13898</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16551</v>
+        <v>16066</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13580</v>
+        <v>13473</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23356</v>
+        <v>23822</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19294</v>
+        <v>20197</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26420</v>
+        <v>26552</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9303</v>
+        <v>9276</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4271</v>
+        <v>4152</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1311</v>
+        <v>1286</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1889</v>
+        <v>1903</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11701</v>
+        <v>11409</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1895</v>
+        <v>1811</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7375</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8907</v>
+        <v>7780</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27834</v>
+        <v>29361</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9759</v>
+        <v>8808</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15318</v>
+        <v>15057</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5887</v>
+        <v>5907</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8917</v>
+        <v>7905</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4596</v>
+        <v>5014</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7165</v>
+        <v>7122</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10906</v>
+        <v>11250</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31157</v>
+        <v>31103</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11065</v>
+        <v>10364</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>20309</v>
+        <v>18994</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6282</v>
+        <v>6490</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7905</v>
+        <v>7397</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2788</v>
+        <v>2861</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13944</v>
+        <v>14091</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4953</v>
+        <v>5382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10850</v>
+        <v>10466</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6765</v>
+        <v>6307</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14560</v>
+        <v>14470</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13596</v>
+        <v>13827</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>22250</v>
+        <v>21235</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>12001</v>
+        <v>11732</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>32950</v>
+        <v>33010</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20257</v>
+        <v>21193</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24155</v>
+        <v>21932</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13644</v>
+        <v>13066</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32759</v>
+        <v>31740</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17440</v>
+        <v>18697</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29495</v>
+        <v>29139</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20910</v>
+        <v>20260</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>32429</v>
+        <v>30938</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32711</v>
+        <v>34414</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>45247</v>
+        <v>44611</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29759</v>
+        <v>28525</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>56294</v>
+        <v>56599</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2900</v>
+        <v>3025</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5983</v>
+        <v>5690</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8651</v>
+        <v>8963</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14636</v>
+        <v>13482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11675</v>
+        <v>12991</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17896</v>
+        <v>17735</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2066</v>
+        <v>2051</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>19793</v>
+        <v>19696</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>21630</v>
+        <v>21568</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>29910</v>
+        <v>29799</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7516</v>
+        <v>7568</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13341</v>
+        <v>14009</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20347</v>
+        <v>20233</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23519</v>
+        <v>24876</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8235</v>
+        <v>8937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>33342</v>
+        <v>33464</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>32554</v>
+        <v>33244</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>32968</v>
+        <v>33150</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11895</v>
+        <v>11764</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>40673</v>
+        <v>42918</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>46772</v>
+        <v>44669</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>52378</v>
+        <v>52046</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2449</v>
+        <v>3040</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5523</v>
+        <v>5260</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1905</v>
+        <v>1877</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5066</v>
+        <v>4569</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9469</v>
+        <v>9020</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12392</v>
+        <v>12867</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7979</v>
+        <v>7981</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21971</v>
+        <v>22237</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>14077</v>
+        <v>14340</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>21195</v>
+        <v>21139</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>11816</v>
+        <v>12077</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>29992</v>
+        <v>29816</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14730</v>
+        <v>14140</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19737</v>
+        <v>21398</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11329</v>
+        <v>10888</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>22698</v>
+        <v>22192</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25723</v>
+        <v>27033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>31486</v>
+        <v>32017</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25913</v>
+        <v>24469</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43542</v>
+        <v>42520</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>34196</v>
+        <v>34198</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>46641</v>
+        <v>44622</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>31253</v>
+        <v>30549</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>55390</v>
+        <v>56738</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19321</v>
+        <v>20459</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>47438</v>
+        <v>48396</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21495</v>
+        <v>21724</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>62034</v>
+        <v>60157</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28819</v>
+        <v>28306</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>58097</v>
+        <v>59050</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>43101</v>
+        <v>44041</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>87874</v>
+        <v>87324</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>53828</v>
+        <v>52958</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>112329</v>
+        <v>115293</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>72293</v>
+        <v>70771</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>156636</v>
+        <v>158427</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42350</v>
+        <v>43801</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>82321</v>
+        <v>83189</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44285</v>
+        <v>44502</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>96026</v>
+        <v>97094</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>54242</v>
+        <v>53785</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>93450</v>
+        <v>93525</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>73752</v>
+        <v>73602</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>121573</v>
+        <v>123338</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>85609</v>
+        <v>87421</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>162978</v>
+        <v>167402</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>113276</v>
+        <v>108775</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>206325</v>
+        <v>208632</v>
       </c>
     </row>
     <row r="32">
